--- a/biology/Médecine/Léonard_Tassin/Léonard_Tassin.xlsx
+++ b/biology/Médecine/Léonard_Tassin/Léonard_Tassin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9onard_Tassin</t>
+          <t>Léonard_Tassin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léonard Tassin est un chirurgien militaire français né en 1620 à Vendeuvre-sur-Barse en Champagne et mort à Maastricht[1] le 13 avril 1687.
-Il fait ses études à Paris, pratique à la suite des armées notamment lors de la guerre de Hollande et devient chirurgien-major de l’Hôpital militaire de Maastricht[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léonard Tassin est un chirurgien militaire français né en 1620 à Vendeuvre-sur-Barse en Champagne et mort à Maastricht le 13 avril 1687.
+Il fait ses études à Paris, pratique à la suite des armées notamment lors de la guerre de Hollande et devient chirurgien-major de l’Hôpital militaire de Maastricht.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9onard_Tassin</t>
+          <t>Léonard_Tassin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>On lui doit un ouvrage d’anatomie pratique « estimé en son temps[3] » et un opuscule de chirurgie[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On lui doit un ouvrage d’anatomie pratique « estimé en son temps » et un opuscule de chirurgie :
 La chirurgie militaire ou l'art de guairir les playes d'arquebusade, Nimègue, Régnier Smetius, 1673 ;
 Les administrations anatomiques et la myologie, Paris, F. Chayer, 1676 - 226 pages.</t>
         </is>
